--- a/design/导入模板/车贷.xlsx
+++ b/design/导入模板/车贷.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\GitHub\LoanMgr\design\测试模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\GitHub\LoanMgr\design\导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,115 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Patrick</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Patrick:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不能为空
+单元格的格式必须为日期并且日期的格式为yyyy/mm/dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不能为空
+必须为数字
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须为数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须为数字</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
@@ -2148,7 +2257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2184,6 +2293,19 @@
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2591,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FG95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -3177,7 +3299,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:163" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -3626,6 +3748,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
